--- a/FBG_Needle_Calibration_Data/needle_1/Calibration/0 deg/12-28-19_14-49/curvature_data.xlsx
+++ b/FBG_Needle_Calibration_Data/needle_1/Calibration/0 deg/12-28-19_14-49/curvature_data.xlsx
@@ -379,58 +379,58 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>53389.271015</v>
+        <v>53354.071013</v>
       </c>
       <c r="B2">
-        <v>-0.0005458893</v>
+        <v>-2.9923362505e-05</v>
       </c>
       <c r="C2">
-        <v>-0.0004526221</v>
+        <v>-2.4573135347e-05</v>
       </c>
       <c r="D2">
-        <v>-0.0001525754</v>
+        <v>-8.7219733459e-06</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>53448.335018</v>
+        <v>53366.071014</v>
       </c>
       <c r="B3">
-        <v>-0.0003544295</v>
+        <v>-0.00017546854164</v>
       </c>
       <c r="C3">
-        <v>-0.0002923323</v>
+        <v>-0.00014435933676</v>
       </c>
       <c r="D3">
-        <v>-0.0001029759</v>
+        <v>-5.1889830046e-05</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>53354.071013</v>
+        <v>53378.003014</v>
       </c>
       <c r="B4">
-        <v>-2.9923362505e-05</v>
+        <v>-0.0003636043</v>
       </c>
       <c r="C4">
-        <v>-2.4573135347e-05</v>
+        <v>-0.0002997658</v>
       </c>
       <c r="D4">
-        <v>-8.7219733459e-06</v>
+        <v>-0.0001047619</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>53438.135017</v>
+        <v>53389.271015</v>
       </c>
       <c r="B5">
-        <v>-0.0005305125</v>
+        <v>-0.0005458893</v>
       </c>
       <c r="C5">
-        <v>-0.0004410856</v>
+        <v>-0.0004526221</v>
       </c>
       <c r="D5">
-        <v>-0.0001542927</v>
+        <v>-0.0001525754</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -449,58 +449,58 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>53378.003014</v>
+        <v>53413.535016</v>
       </c>
       <c r="B7">
-        <v>-0.0003636043</v>
+        <v>-0.0008925776</v>
       </c>
       <c r="C7">
-        <v>-0.0002997658</v>
+        <v>-0.0007633636</v>
       </c>
       <c r="D7">
-        <v>-0.0001047619</v>
+        <v>-0.0002543119</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>53366.071014</v>
+        <v>53427.935017</v>
       </c>
       <c r="B8">
-        <v>-0.00017546854164</v>
+        <v>-0.0007173239000000001</v>
       </c>
       <c r="C8">
-        <v>-0.00014435933676</v>
+        <v>-0.0006025293</v>
       </c>
       <c r="D8">
-        <v>-5.1889830046e-05</v>
+        <v>-0.0002026028</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>53469.203019</v>
+        <v>53438.135017</v>
       </c>
       <c r="B9">
-        <v>-2.6838564305e-05</v>
+        <v>-0.0005305125</v>
       </c>
       <c r="C9">
-        <v>-2.2512073247e-05</v>
+        <v>-0.0004410856</v>
       </c>
       <c r="D9">
-        <v>-9.692664531000001e-06</v>
+        <v>-0.0001542927</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>53427.935017</v>
+        <v>53448.335018</v>
       </c>
       <c r="B10">
-        <v>-0.0007173239000000001</v>
+        <v>-0.0003544295</v>
       </c>
       <c r="C10">
-        <v>-0.0006025293</v>
+        <v>-0.0002923323</v>
       </c>
       <c r="D10">
-        <v>-0.0002026028</v>
+        <v>-0.0001029759</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -519,16 +519,16 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>53413.535016</v>
+        <v>53469.203019</v>
       </c>
       <c r="B12">
-        <v>-0.0008925776</v>
+        <v>-2.6838564305e-05</v>
       </c>
       <c r="C12">
-        <v>-0.0007633636</v>
+        <v>-2.2512073247e-05</v>
       </c>
       <c r="D12">
-        <v>-0.0002543119</v>
+        <v>-9.692664531000001e-06</v>
       </c>
     </row>
   </sheetData>
